--- a/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
+++ b/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
@@ -37,7 +37,7 @@
     <t>103</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fe426047a60&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7fd6ced116a0&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2', 'proba_politics_question2', 'spacy_similarity']</t>

--- a/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
+++ b/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
@@ -37,7 +37,7 @@
     <t>103</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7fd6ced116a0&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7f828574afd0&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2', 'proba_politics_question2', 'spacy_similarity']</t>

--- a/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
+++ b/preprocessing/preprocessing_all_features_all_preprocess_optim.xlsx
@@ -37,7 +37,7 @@
     <t>103</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f828574afd0&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7f4dfeb8ba60&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1', 'nb_words_question2', 'nb_common_words', 'nb_common_words/nb_words_question1', 'nb_common_words/nb_words_question2', 'nb_words_question1-common_words', 'nb_words_question2-common_words', 'nb_common_words/(nb_words_question1+nb_words_question2)', 'nltk_nb_words_question1', 'nltk_nb_words_question2', 'nltk_nb_common_words', 'nltk_nb_common_words/nltk_nb_words_question1', 'nltk_nb_common_words/nltk_nb_words_question2', 'nltk_nb_words_question1-nltk_common_words', 'nltk_nb_words_question2-nltk_common_words', 'nltk_nb_common_words/(nltk_nb_words_question1+nltk_nb_words_question2)', 'all_nb_words_question1', 'all_nb_words_question2', 'all_nb_common_words', 'all_nb_common_words/all_nb_words_question1', 'all_nb_common_words/all_nb_words_question2', 'all_nb_words_question1-all_common_words', 'all_nb_words_question2-all_common_words', 'all_nb_common_words/(all_nb_words_question1+all_nb_words_question2)', 'clean_all_nb_words_question1', 'clean_all_nb_words_question2', 'clean_all_nb_common_words', 'clean_all_nb_common_words/clean_all_nb_words_question1', 'clean_all_nb_common_words/clean_all_nb_words_question2', 'clean_all_nb_words_question1-clean_all_common_words', 'clean_all_nb_words_question2-clean_all_common_words', 'clean_all_nb_common_words/(clean_all_nb_words_question1+clean_all_nb_words_question2)', 'lemmatized_nb_words_question1', 'lemmatized_nb_words_question2', 'lemmatized_nb_common_words', 'lemmatized_nb_common_words/lemmatized_nb_words_question1', 'lemmatized_nb_common_words/lemmatized_nb_words_question2', 'lemmatized_nb_words_question1-lemmatized_common_words', 'lemmatized_nb_words_question2-lemmatized_common_words', 'lemmatized_nb_common_words/(lemmatized_nb_words_question1+lemmatized_nb_words_question2)', 'nb_entities_GPE_question1', 'nb_entities_PERSON_question1', 'nb_entities_PRODUCT_question1', 'nb_entities_ORG_question1', 'nb_entities_DATE_question1', 'nb_entities_NORP_question1', 'nb_entities_WORK_OF_ART_question1', 'nb_entities_LANGUAGE_question1', 'nb_entities_EVENT_question1', 'nb_entities_FAC_question1', 'nb_entities_LAW_question1', 'nb_entities_LOC_question1', 'nb_entities_GPE_question2', 'nb_entities_PERSON_question2', 'nb_entities_PRODUCT_question2', 'nb_entities_ORG_question2', 'nb_entities_DATE_question2', 'nb_entities_NORP_question2', 'nb_entities_WORK_OF_ART_question2', 'nb_entities_LANGUAGE_question2', 'nb_entities_EVENT_question2', 'nb_entities_FAC_question2', 'nb_entities_LAW_question2', 'nb_entities_LOC_question2', 'nb_entities_common_GPE', 'nb_entities_common_PERSON', 'nb_entities_common_PRODUCT', 'nb_entities_common_ORG', 'nb_entities_common_DATE', 'nb_entities_common_NORP', 'nb_entities_common_WORK_OF_ART', 'nb_entities_common_LANGUAGE', 'nb_entities_common_EVENT', 'nb_entities_common_FAC', 'nb_entities_common_LAW', 'nb_entities_common_LOC', 'ratio_nb_entities_common_GPE', 'ratio_nb_entities_common_PERSON', 'ratio_nb_entities_common_PRODUCT', 'ratio_nb_entities_common_ORG', 'ratio_nb_entities_common_DATE', 'ratio_nb_entities_common_NORP', 'ratio_nb_entities_common_WORK_OF_ART', 'ratio_nb_entities_common_LANGUAGE', 'ratio_nb_entities_common_EVENT', 'ratio_nb_entities_common_FAC', 'ratio_nb_entities_common_LAW', 'ratio_nb_entities_common_LOC', 'proba_religion_question1', 'proba_computers_question1', 'proba_forsale_question1', 'proba_vehicles_question1', 'proba_sport_question1', 'proba_science_question1', 'proba_politics_question1', 'proba_religion_question2', 'proba_computers_question2', 'proba_forsale_question2', 'proba_vehicles_question2', 'proba_sport_question2', 'proba_science_question2', 'proba_politics_question2', 'spacy_similarity']</t>
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.8608</v>
+        <v>0.8614000000000001</v>
       </c>
       <c r="C2">
-        <v>0.8462</v>
+        <v>0.8467</v>
       </c>
       <c r="D2">
-        <v>0.2867</v>
+        <v>0.286</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>279.8646</v>
+        <v>282.659</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
